--- a/data/stall_like_dislike.xlsx
+++ b/data/stall_like_dislike.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW\Desktop\cuhksz\eie3280\canteen_eva-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA9F07B-CD98-413A-810A-7C4AA73DA4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC5889-5E3E-4341-904B-F905E43FBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,15 +564,15 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,13 +580,13 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -594,13 +594,13 @@
         <v>43</v>
       </c>
       <c r="C2">
+        <v>7.2289156626506017</v>
+      </c>
+      <c r="D2">
         <v>29.518072289156628</v>
       </c>
-      <c r="D2">
-        <v>7.2289156626506017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,13 +608,13 @@
         <v>44</v>
       </c>
       <c r="C3">
+        <v>7.8313253012048198</v>
+      </c>
+      <c r="D3">
         <v>22.289156626506024</v>
       </c>
-      <c r="D3">
-        <v>7.8313253012048198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -622,13 +622,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>18.674698795180721</v>
+      </c>
+      <c r="D4">
         <v>16.265060240963855</v>
       </c>
-      <c r="D4">
-        <v>18.674698795180721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -636,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>13.855421686746988</v>
+      </c>
+      <c r="D5">
         <v>17.46987951807229</v>
       </c>
-      <c r="D5">
-        <v>13.855421686746988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -650,13 +650,13 @@
         <v>28</v>
       </c>
       <c r="C6">
+        <v>24.69879518072289</v>
+      </c>
+      <c r="D6">
         <v>7.8313253012048198</v>
       </c>
-      <c r="D6">
-        <v>24.69879518072289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -664,13 +664,13 @@
         <v>29</v>
       </c>
       <c r="C7">
+        <v>8.4337349397590362</v>
+      </c>
+      <c r="D7">
         <v>19.277108433734941</v>
       </c>
-      <c r="D7">
-        <v>8.4337349397590362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -678,13 +678,13 @@
         <v>30</v>
       </c>
       <c r="C8">
+        <v>12.650602409638553</v>
+      </c>
+      <c r="D8">
         <v>22.891566265060241</v>
       </c>
-      <c r="D8">
-        <v>12.650602409638553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -692,13 +692,13 @@
         <v>31</v>
       </c>
       <c r="C9">
+        <v>9.0361445783132535</v>
+      </c>
+      <c r="D9">
         <v>23.493975903614459</v>
       </c>
-      <c r="D9">
-        <v>9.0361445783132535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -706,13 +706,13 @@
         <v>32</v>
       </c>
       <c r="C10">
+        <v>14.457831325301203</v>
+      </c>
+      <c r="D10">
         <v>15.66265060240964</v>
       </c>
-      <c r="D10">
-        <v>14.457831325301203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -720,13 +720,13 @@
         <v>33</v>
       </c>
       <c r="C11">
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="D11">
         <v>12.650602409638553</v>
       </c>
-      <c r="D11">
-        <v>9.6385542168674707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -734,13 +734,13 @@
         <v>34</v>
       </c>
       <c r="C12">
+        <v>8.4337349397590362</v>
+      </c>
+      <c r="D12">
         <v>17.46987951807229</v>
       </c>
-      <c r="D12">
-        <v>8.4337349397590362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -748,13 +748,13 @@
         <v>35</v>
       </c>
       <c r="C13">
+        <v>3.6144578313253009</v>
+      </c>
+      <c r="D13">
         <v>26.506024096385545</v>
       </c>
-      <c r="D13">
-        <v>3.6144578313253009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -762,55 +762,55 @@
         <v>36</v>
       </c>
       <c r="C14">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D14">
         <v>12.048192771084338</v>
       </c>
-      <c r="D14">
-        <v>4.2168674698795181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>28.915662650602407</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <v>7.8313253012048198</v>
+      </c>
+      <c r="D16">
         <v>12.048192771084338</v>
       </c>
-      <c r="D16" s="3">
-        <v>7.8313253012048198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
+        <v>7.8313253012048198</v>
+      </c>
+      <c r="D17">
         <v>10.843373493975903</v>
       </c>
-      <c r="D17" s="3">
-        <v>7.8313253012048198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -818,13 +818,13 @@
         <v>40</v>
       </c>
       <c r="C18">
+        <v>8.4337349397590362</v>
+      </c>
+      <c r="D18">
         <v>10.240963855421686</v>
       </c>
-      <c r="D18">
-        <v>8.4337349397590362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C19">
+        <v>14.457831325301203</v>
+      </c>
+      <c r="D19">
         <v>12.5</v>
       </c>
-      <c r="D19">
-        <v>14.457831325301203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -846,13 +846,13 @@
         <v>16</v>
       </c>
       <c r="C20">
+        <v>7.8313253012048198</v>
+      </c>
+      <c r="D20">
         <v>34.821428571428569</v>
       </c>
-      <c r="D20">
-        <v>7.8313253012048198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -860,13 +860,13 @@
         <v>24</v>
       </c>
       <c r="C21">
+        <v>6.6265060240963862</v>
+      </c>
+      <c r="D21">
         <v>31.25</v>
       </c>
-      <c r="D21">
-        <v>6.6265060240963862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -874,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="C22">
+        <v>6.024096385542169</v>
+      </c>
+      <c r="D22">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>6.024096385542169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -888,13 +888,13 @@
         <v>41</v>
       </c>
       <c r="C23">
+        <v>6.6265060240963862</v>
+      </c>
+      <c r="D23">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D23">
-        <v>6.6265060240963862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -902,13 +902,13 @@
         <v>42</v>
       </c>
       <c r="C24">
+        <v>6.6265060240963862</v>
+      </c>
+      <c r="D24">
         <v>3.5714285714285712</v>
       </c>
-      <c r="D24">
-        <v>6.6265060240963862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -916,13 +916,13 @@
         <v>25</v>
       </c>
       <c r="C25">
+        <v>10.240963855421686</v>
+      </c>
+      <c r="D25">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D25">
-        <v>10.240963855421686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -930,13 +930,13 @@
         <v>26</v>
       </c>
       <c r="C26">
+        <v>12.650602409638553</v>
+      </c>
+      <c r="D26">
         <v>4.4642857142857144</v>
       </c>
-      <c r="D26">
-        <v>12.650602409638553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -944,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="C27">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D27">
         <v>35.714285714285715</v>
       </c>
-      <c r="D27">
-        <v>4.2168674698795181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -958,13 +958,13 @@
         <v>19</v>
       </c>
       <c r="C28">
+        <v>3.6144578313253009</v>
+      </c>
+      <c r="D28">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>3.6144578313253009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -972,13 +972,13 @@
         <v>20</v>
       </c>
       <c r="C29">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="D29">
-        <v>1.8072289156626504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -986,13 +986,13 @@
         <v>5</v>
       </c>
       <c r="C30">
+        <v>15.66265060240964</v>
+      </c>
+      <c r="D30">
         <v>13</v>
       </c>
-      <c r="D30">
-        <v>15.66265060240964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1000,13 +1000,13 @@
         <v>17</v>
       </c>
       <c r="C31">
+        <v>7.2289156626506017</v>
+      </c>
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="D31">
-        <v>7.2289156626506017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1014,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="C32">
+        <v>12.650602409638553</v>
+      </c>
+      <c r="D32">
         <v>8.235294117647058</v>
       </c>
-      <c r="D32">
-        <v>12.650602409638553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1028,13 +1028,13 @@
         <v>15</v>
       </c>
       <c r="C33">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="D33">
         <v>34.117647058823529</v>
       </c>
-      <c r="D33">
-        <v>1.8072289156626504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1042,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="C34">
+        <v>7.2289156626506017</v>
+      </c>
+      <c r="D34">
         <v>12.941176470588237</v>
       </c>
-      <c r="D34">
-        <v>7.2289156626506017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1056,13 +1056,13 @@
         <v>14</v>
       </c>
       <c r="C35">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="D35">
         <v>15.294117647058824</v>
       </c>
-      <c r="D35">
-        <v>1.8072289156626504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1070,13 +1070,13 @@
         <v>13</v>
       </c>
       <c r="C36">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D36">
         <v>15.294117647058824</v>
       </c>
-      <c r="D36">
-        <v>4.2168674698795181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1084,13 +1084,13 @@
         <v>11</v>
       </c>
       <c r="C37">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D37">
         <v>14.117647058823529</v>
       </c>
-      <c r="D37">
-        <v>4.2168674698795181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1098,13 +1098,13 @@
         <v>11</v>
       </c>
       <c r="C38">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="D38">
         <v>8.695652173913043</v>
       </c>
-      <c r="D38">
-        <v>1.2048192771084338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1112,13 +1112,13 @@
         <v>10</v>
       </c>
       <c r="C39">
+        <v>1.8072289156626504</v>
+      </c>
+      <c r="D39">
         <v>13.043478260869565</v>
       </c>
-      <c r="D39">
-        <v>1.8072289156626504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1126,13 +1126,13 @@
         <v>9</v>
       </c>
       <c r="C40">
+        <v>3.0120481927710845</v>
+      </c>
+      <c r="D40">
         <v>26.086956521739129</v>
       </c>
-      <c r="D40">
-        <v>3.0120481927710845</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1140,13 +1140,13 @@
         <v>8</v>
       </c>
       <c r="C41">
+        <v>6.6265060240963862</v>
+      </c>
+      <c r="D41">
         <v>13.043478260869565</v>
       </c>
-      <c r="D41">
-        <v>6.6265060240963862</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1154,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="C42">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="D42">
         <v>28.260869565217391</v>
       </c>
-      <c r="D42">
-        <v>0.60240963855421692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1168,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="C43">
+        <v>2.4096385542168677</v>
+      </c>
+      <c r="D43">
         <v>19.565217391304348</v>
       </c>
-      <c r="D43">
-        <v>2.4096385542168677</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1182,13 +1182,13 @@
         <v>3</v>
       </c>
       <c r="C44">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="D44">
         <v>34.782608695652172</v>
       </c>
-      <c r="D44">
-        <v>1.2048192771084338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1196,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="C45">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D45">
         <v>15.217391304347828</v>
       </c>
-      <c r="D45">
-        <v>4.2168674698795181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1210,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="C46">
+        <v>4.2168674698795181</v>
+      </c>
+      <c r="D46">
         <v>8.695652173913043</v>
-      </c>
-      <c r="D46">
-        <v>4.2168674698795181</v>
       </c>
     </row>
   </sheetData>
